--- a/1-Software Development Lifecycle/Forms/Requirements List Form- F3.xlsx
+++ b/1-Software Development Lifecycle/Forms/Requirements List Form- F3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayed.hawas\Downloads\3-12-2025\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heba.backar\Downloads\SW 2025 2\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E8F75-0B78-49B1-97ED-560762218EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD91B12-32D1-44CD-A473-A713279A9F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A344BFA-FDE1-41B1-86D6-5989F9E3913F}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-SW-SD-02" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-03" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-02'!$A$1:$D$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-SW-SD-03'!$A$1:$D$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/1-Software Development Lifecycle/Forms/Requirements List Form- F3.xlsx
+++ b/1-Software Development Lifecycle/Forms/Requirements List Form- F3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heba.backar\Downloads\SW 2025 2\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD91B12-32D1-44CD-A473-A713279A9F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215CC6EF-58F3-492A-B75E-59DDD80FC92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A344BFA-FDE1-41B1-86D6-5989F9E3913F}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{4A344BFA-FDE1-41B1-86D6-5989F9E3913F}"/>
   </bookViews>
   <sheets>
     <sheet name="F-SW-SD-03" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +845,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;14Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;14F-SW-SD/03&amp;R&amp;"Arial,Regular"&amp;14Rev: 0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;14Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;14F-SW-SD/03&amp;R&amp;"Arial,Regular"&amp;14Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
